--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value457.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value457.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.300068133144186</v>
+        <v>1.018300890922546</v>
       </c>
       <c r="B1">
-        <v>1.830625116461692</v>
+        <v>1.748725891113281</v>
       </c>
       <c r="C1">
-        <v>3.328592673517552</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.837112854126038</v>
+        <v>2.004086971282959</v>
       </c>
       <c r="E1">
-        <v>0.3757739209491315</v>
+        <v>1.261240482330322</v>
       </c>
     </row>
   </sheetData>
